--- a/通讯协议.xlsx
+++ b/通讯协议.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\软件资料\MudGameDemo-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A94343C-E468-4CE7-8365-51603880CCCF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BED835-E36F-4E37-9C16-5F2100F00577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="主体机构" sheetId="1" r:id="rId1"/>
+    <sheet name="type分配" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>1byte</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +105,127 @@
   </si>
   <si>
     <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3</t>
+  </si>
+  <si>
+    <t>0x4</t>
+  </si>
+  <si>
+    <t>0x5</t>
+  </si>
+  <si>
+    <t>0x6</t>
+  </si>
+  <si>
+    <t>0x7</t>
+  </si>
+  <si>
+    <t>0x8</t>
+  </si>
+  <si>
+    <t>0x9</t>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>0x11</t>
+  </si>
+  <si>
+    <t>0x12</t>
+  </si>
+  <si>
+    <t>0x13</t>
+  </si>
+  <si>
+    <t>0x14</t>
+  </si>
+  <si>
+    <t>0x15</t>
+  </si>
+  <si>
+    <t>0x100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x102</t>
+  </si>
+  <si>
+    <t>0x103</t>
+  </si>
+  <si>
+    <t>0x104</t>
+  </si>
+  <si>
+    <t>0x105</t>
+  </si>
+  <si>
+    <t>0x106</t>
+  </si>
+  <si>
+    <t>0x107</t>
+  </si>
+  <si>
+    <t>0x108</t>
+  </si>
+  <si>
+    <t>0x109</t>
+  </si>
+  <si>
+    <t>0x110</t>
+  </si>
+  <si>
+    <t>0x111</t>
+  </si>
+  <si>
+    <t>0x112</t>
+  </si>
+  <si>
+    <t>0x113</t>
+  </si>
+  <si>
+    <t>0x114</t>
+  </si>
+  <si>
+    <t>0x115</t>
+  </si>
+  <si>
+    <t>0xf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,13 +269,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -584,4 +712,175 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0E4B43-7C44-4888-A6C3-899EE6C7CBC1}">
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="22.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="15.77734375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/通讯协议.xlsx
+++ b/通讯协议.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\软件资料\MudGameDemo-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BED835-E36F-4E37-9C16-5F2100F00577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6988E2B1-3821-4B7E-9796-F47A1C35778C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>1byte</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,14 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>logon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x3</t>
   </si>
   <si>
@@ -153,79 +145,111 @@
     <t>0x9</t>
   </si>
   <si>
-    <t>0x10</t>
-  </si>
-  <si>
-    <t>0x11</t>
-  </si>
-  <si>
-    <t>0x12</t>
-  </si>
-  <si>
-    <t>0x13</t>
-  </si>
-  <si>
-    <t>0x14</t>
-  </si>
-  <si>
-    <t>0x15</t>
-  </si>
-  <si>
-    <t>0x100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x102</t>
-  </si>
-  <si>
-    <t>0x103</t>
-  </si>
-  <si>
-    <t>0x104</t>
-  </si>
-  <si>
-    <t>0x105</t>
-  </si>
-  <si>
-    <t>0x106</t>
-  </si>
-  <si>
-    <t>0x107</t>
-  </si>
-  <si>
-    <t>0x108</t>
-  </si>
-  <si>
-    <t>0x109</t>
-  </si>
-  <si>
-    <t>0x110</t>
-  </si>
-  <si>
-    <t>0x111</t>
-  </si>
-  <si>
-    <t>0x112</t>
-  </si>
-  <si>
-    <t>0x113</t>
-  </si>
-  <si>
-    <t>0x114</t>
-  </si>
-  <si>
-    <t>0x115</t>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logon success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x82</t>
+  </si>
+  <si>
+    <t>0x83</t>
+  </si>
+  <si>
+    <t>0x84</t>
+  </si>
+  <si>
+    <t>0x85</t>
+  </si>
+  <si>
+    <t>0x86</t>
+  </si>
+  <si>
+    <t>0x87</t>
+  </si>
+  <si>
+    <t>0x88</t>
+  </si>
+  <si>
+    <t>0x89</t>
+  </si>
+  <si>
+    <t>0x8a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x8b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x8c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x8d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x8e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x8f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0xf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fail</t>
+    <t>login success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logon fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login/注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logon/登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,16 +293,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -566,7 +593,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -575,29 +602,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -606,29 +633,29 @@
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -637,18 +664,18 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -660,12 +687,12 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
@@ -675,12 +702,12 @@
       <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
       <c r="O4" s="1" t="s">
         <v>17</v>
       </c>
@@ -719,159 +746,168 @@
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="22.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="15.77734375" style="3"/>
+    <col min="1" max="16384" width="15.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="9" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3" t="s">
+    <row r="10" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3" t="s">
+    <row r="11" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
+    <row r="12" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="3" t="s">
+    <row r="13" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="3" t="s">
+    <row r="14" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="3" t="s">
+    <row r="15" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="3" t="s">
+    <row r="16" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="3" t="s">
+    <row r="17" spans="6:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="3" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
